--- a/TPDS/experiments/bpmax_final.xlsx
+++ b/TPDS/experiments/bpmax_final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MyDocuments/Techinical Documents/Masters/Thesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiranjeb/alphaz-user-docker/workspace/bpmax_cpu/TPDS/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BECC32-0621-DD43-802F-A74A7CE5BC83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DF5517-938E-7845-9412-A3D6E2C44FA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="500" windowWidth="35240" windowHeight="21140" activeTab="6" xr2:uid="{0C30D273-C875-C946-AD28-F8B083B05E28}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="120">
   <si>
     <t>32 x 1024</t>
   </si>
@@ -382,16 +382,16 @@
     <t>Coffee Lake: fine-grain diagonal (MPT+RT) Turbo On (1 Core)</t>
   </si>
   <si>
-    <t>Coffee Lake: fine-grain diagonal (MPT+RT)  GLOPS Ratio (Turbo Off)</t>
-  </si>
-  <si>
-    <t>Coffee Lake: fine-grain diagonal (MPT+RT)  GLOPS Ratio (Turbo On)</t>
-  </si>
-  <si>
     <t>bp max OPS</t>
   </si>
   <si>
     <t>bp max GFLOPs</t>
+  </si>
+  <si>
+    <t>Coffee Lake:  [MPT+RT]:v3 GLOPS Ratio (Turbo Off)</t>
+  </si>
+  <si>
+    <t>Coffee Lake:  [MPT+RT]:v3 GLOPS Ratio (Turbo On)</t>
   </si>
 </sst>
 </file>
@@ -631,6 +631,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -641,9 +644,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9862,10 +9862,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13642735834491276"/>
-          <c:y val="0.11793322734499205"/>
-          <c:w val="0.84816647919010124"/>
-          <c:h val="0.55642304522981123"/>
+          <c:x val="0.14483070306112164"/>
+          <c:y val="0.27147269135527669"/>
+          <c:w val="0.81455303381194988"/>
+          <c:h val="0.53599356246009788"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -9881,7 +9881,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Coffee Lake: fine-grain diagonal (MPT+RT)  GLOPS Ratio (Turbo Off)</c:v>
+                  <c:v>Coffee Lake:  [MPT+RT]:v3 GLOPS Ratio (Turbo Off)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9959,7 +9959,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Coffee Lake: fine-grain diagonal (MPT+RT)  GLOPS Ratio (Turbo On)</c:v>
+                  <c:v>Coffee Lake:  [MPT+RT]:v3 GLOPS Ratio (Turbo On)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10081,8 +10081,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.52160645360506408"/>
-              <c:y val="0.75811115180369903"/>
+              <c:x val="0.50935321490610774"/>
+              <c:y val="0.88351776973824225"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -10223,8 +10223,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.1925715167956947E-2"/>
-              <c:y val="0.1054669474455228"/>
+              <c:x val="5.3631049741970659E-2"/>
+              <c:y val="0.10256948888456079"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -10296,6 +10296,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10895152598678788"/>
+          <c:y val="5.292961268354969E-2"/>
+          <c:w val="0.80198904484765476"/>
+          <c:h val="0.1679235413594502"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10309,7 +10319,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -16657,9 +16667,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17138,13 +17148,13 @@
     </row>
     <row r="6" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:7" s="1" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -17194,13 +17204,13 @@
     </row>
     <row r="11" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:7" s="1" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
     </row>
     <row r="13" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
@@ -17254,13 +17264,13 @@
     </row>
     <row r="15" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="2:7" s="1" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
     </row>
     <row r="17" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -17289,13 +17299,13 @@
       </c>
     </row>
     <row r="22" spans="2:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
@@ -17347,13 +17357,13 @@
       <c r="B25" s="9"/>
     </row>
     <row r="27" spans="2:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
     </row>
     <row r="28" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="s">
@@ -17406,13 +17416,13 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
@@ -17664,21 +17674,21 @@
       </c>
     </row>
     <row r="14" spans="4:19" ht="25" x14ac:dyDescent="0.25">
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
     </row>
     <row r="15" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D15" s="1" t="s">
@@ -17981,21 +17991,21 @@
       </c>
     </row>
     <row r="22" spans="4:19" ht="25" x14ac:dyDescent="0.25">
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
     </row>
     <row r="23" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D23" s="1" t="s">
@@ -18389,21 +18399,21 @@
     </row>
     <row r="29" spans="4:19" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="4:19" ht="25" x14ac:dyDescent="0.25">
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
     </row>
     <row r="32" spans="4:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D32" s="9" t="s">
@@ -18790,42 +18800,42 @@
     <row r="7" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C9" s="21"/>
@@ -19181,40 +19191,40 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C8" s="22" t="s">
@@ -19576,40 +19586,40 @@
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C22" s="22" t="s">
@@ -19971,40 +19981,40 @@
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="22" t="s">
@@ -20388,41 +20398,41 @@
   <sheetData>
     <row r="9" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C9" s="21"/>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
     </row>
     <row r="10" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C10" s="21"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
     </row>
     <row r="11" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C11" s="21"/>
@@ -20983,21 +20993,21 @@
       </c>
     </row>
     <row r="14" spans="4:20" ht="25" x14ac:dyDescent="0.25">
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
     </row>
     <row r="15" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D15" s="12" t="s">
@@ -21504,21 +21514,21 @@
       <c r="P26" s="11"/>
     </row>
     <row r="28" spans="4:21" ht="25" x14ac:dyDescent="0.25">
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
     </row>
     <row r="29" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D29" s="12" t="s">
@@ -22118,21 +22128,21 @@
     </row>
     <row r="39" spans="4:20" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="4:20" ht="25" x14ac:dyDescent="0.25">
-      <c r="D40" s="40" t="s">
+      <c r="D40" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
     </row>
     <row r="41" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D41" s="12" t="s">
@@ -22792,10 +22802,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30A236D-C9A3-6D48-9027-691257679500}">
-  <dimension ref="B1:AC150"/>
+  <dimension ref="B1:AC153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C90" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="C116" workbookViewId="0">
+      <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23023,25 +23033,25 @@
     </row>
     <row r="6" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:23" s="1" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
     </row>
     <row r="8" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -23370,25 +23380,25 @@
     </row>
     <row r="13" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="2:23" s="1" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
     </row>
     <row r="15" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
@@ -23817,25 +23827,25 @@
     </row>
     <row r="20" spans="2:23" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="2:23" s="1" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
     </row>
     <row r="22" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="2:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -24179,25 +24189,25 @@
       </c>
     </row>
     <row r="30" spans="2:23" ht="25" x14ac:dyDescent="0.25">
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B31" s="9" t="s">
@@ -24345,25 +24355,25 @@
       </c>
     </row>
     <row r="35" spans="2:23" ht="25" x14ac:dyDescent="0.25">
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="9" t="s">
@@ -24535,25 +24545,25 @@
       </c>
     </row>
     <row r="41" spans="2:23" ht="25" x14ac:dyDescent="0.25">
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
@@ -24648,21 +24658,21 @@
     </row>
     <row r="77" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C77" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D77" s="12">
         <v>922558654244</v>
       </c>
-      <c r="E77" s="44">
+      <c r="E77" s="40">
         <v>2343520000000</v>
       </c>
-      <c r="F77" s="44">
+      <c r="F77" s="40">
         <v>18698400000000</v>
       </c>
-      <c r="G77" s="44">
+      <c r="G77" s="40">
         <v>33995900000000</v>
       </c>
-      <c r="H77" s="44">
+      <c r="H77" s="40">
         <v>58723600000000</v>
       </c>
       <c r="I77" s="26">
@@ -24671,7 +24681,7 @@
     </row>
     <row r="78" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C78" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D78" s="3">
         <f t="shared" ref="D78:I78" si="13">D77/1000000000</f>
@@ -24697,14 +24707,14 @@
         <f t="shared" si="13"/>
         <v>139133.57374574401</v>
       </c>
-      <c r="O78" s="43" t="s">
+      <c r="O78" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="P78" s="43"/>
-      <c r="Q78" s="43"/>
-      <c r="R78" s="43"/>
-      <c r="S78" s="43"/>
-      <c r="T78" s="43"/>
+      <c r="P78" s="44"/>
+      <c r="Q78" s="44"/>
+      <c r="R78" s="44"/>
+      <c r="S78" s="44"/>
+      <c r="T78" s="44"/>
       <c r="U78" s="34"/>
     </row>
     <row r="79" spans="3:21" x14ac:dyDescent="0.2">
@@ -24967,23 +24977,23 @@
       <c r="I89" s="12">
         <v>6573.5680000000002</v>
       </c>
-      <c r="O89" s="43" t="s">
+      <c r="O89" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="P89" s="43"/>
-      <c r="Q89" s="43"/>
-      <c r="R89" s="43"/>
-      <c r="S89" s="43"/>
-      <c r="T89" s="43"/>
+      <c r="P89" s="44"/>
+      <c r="Q89" s="44"/>
+      <c r="R89" s="44"/>
+      <c r="S89" s="44"/>
+      <c r="T89" s="44"/>
       <c r="U89" s="34"/>
-      <c r="W89" s="43" t="s">
+      <c r="W89" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="X89" s="43"/>
-      <c r="Y89" s="43"/>
-      <c r="Z89" s="43"/>
-      <c r="AA89" s="43"/>
-      <c r="AB89" s="43"/>
+      <c r="X89" s="44"/>
+      <c r="Y89" s="44"/>
+      <c r="Z89" s="44"/>
+      <c r="AA89" s="44"/>
+      <c r="AB89" s="44"/>
     </row>
     <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="12" t="s">
@@ -25483,23 +25493,23 @@
       </c>
     </row>
     <row r="106" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="O106" s="43" t="s">
+      <c r="O106" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="P106" s="43"/>
-      <c r="Q106" s="43"/>
-      <c r="R106" s="43"/>
-      <c r="S106" s="43"/>
-      <c r="T106" s="43"/>
+      <c r="P106" s="44"/>
+      <c r="Q106" s="44"/>
+      <c r="R106" s="44"/>
+      <c r="S106" s="44"/>
+      <c r="T106" s="44"/>
       <c r="U106" s="34"/>
-      <c r="W106" s="43" t="s">
+      <c r="W106" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="X106" s="43"/>
-      <c r="Y106" s="43"/>
-      <c r="Z106" s="43"/>
-      <c r="AA106" s="43"/>
-      <c r="AB106" s="43"/>
+      <c r="X106" s="44"/>
+      <c r="Y106" s="44"/>
+      <c r="Z106" s="44"/>
+      <c r="AA106" s="44"/>
+      <c r="AB106" s="44"/>
     </row>
     <row r="107" spans="3:29" x14ac:dyDescent="0.2">
       <c r="O107" s="29"/>
@@ -26102,7 +26112,7 @@
     </row>
     <row r="149" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D149">
         <f>D144/D143</f>
@@ -26131,7 +26141,7 @@
     </row>
     <row r="150" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D150">
         <f>D146/D145</f>
@@ -26158,19 +26168,24 @@
         <v>8</v>
       </c>
     </row>
+    <row r="153" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C153" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="O78:T78"/>
-    <mergeCell ref="O89:T89"/>
-    <mergeCell ref="O106:T106"/>
-    <mergeCell ref="W89:AB89"/>
-    <mergeCell ref="W106:AB106"/>
     <mergeCell ref="B7:R7"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B21:R21"/>
     <mergeCell ref="B30:R30"/>
     <mergeCell ref="B41:R41"/>
     <mergeCell ref="B35:R35"/>
+    <mergeCell ref="O78:T78"/>
+    <mergeCell ref="O89:T89"/>
+    <mergeCell ref="O106:T106"/>
+    <mergeCell ref="W89:AB89"/>
+    <mergeCell ref="W106:AB106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -26356,21 +26371,21 @@
     </row>
     <row r="6" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:17" s="1" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
     </row>
     <row r="8" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -26488,21 +26503,21 @@
     </row>
     <row r="11" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:17" s="1" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
     </row>
     <row r="13" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
@@ -26636,21 +26651,21 @@
     </row>
     <row r="15" spans="2:17" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="2:17" s="1" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
     </row>
     <row r="17" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -26719,21 +26734,21 @@
       </c>
     </row>
     <row r="22" spans="2:19" ht="25" x14ac:dyDescent="0.25">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
@@ -26862,21 +26877,21 @@
       <c r="S25" s="14"/>
     </row>
     <row r="27" spans="2:19" ht="25" x14ac:dyDescent="0.25">
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
     </row>
     <row r="28" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="s">
@@ -27009,21 +27024,21 @@
       </c>
     </row>
     <row r="32" spans="2:19" ht="25" x14ac:dyDescent="0.25">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">

--- a/TPDS/experiments/bpmax_final.xlsx
+++ b/TPDS/experiments/bpmax_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiranjeb/alphaz-user-docker/workspace/bpmax_cpu/TPDS/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDED509F-7AC9-E044-8AD3-7C1264AEB9B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10825C7F-C2FD-5B46-90A1-00C4CA89D74A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6180" yWindow="500" windowWidth="33720" windowHeight="21140" activeTab="10" xr2:uid="{0C30D273-C875-C946-AD28-F8B083B05E28}"/>
   </bookViews>
